--- a/flows/ZROZ_fund_flow_data.xlsx
+++ b/flows/ZROZ_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3605"/>
+  <dimension ref="A1:B3615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36485,6 +36485,106 @@
         <v>7.643</v>
       </c>
     </row>
+    <row r="3606">
+      <c r="A3606" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3610" t="n">
+        <v>-31.48</v>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3612">
+      <c r="A3612" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3613">
+      <c r="A3613" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3614">
+      <c r="A3614" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3615">
+      <c r="A3615" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3615" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
